--- a/Angular/mock_interview/12_2019/1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2019/1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/12_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D76BB6-3F90-E94B-BA20-909FABDF89FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB110F-EB6A-1740-AB83-88B650EA50F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="940" windowWidth="22600" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="860" windowWidth="22600" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>School</t>
   </si>
@@ -46,21 +46,6 @@
   </si>
   <si>
     <t>Java</t>
-  </si>
-  <si>
-    <t>VA Poly Inst and State U</t>
-  </si>
-  <si>
-    <t>BS (CIS)</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>U of New Orleans</t>
-  </si>
-  <si>
-    <t>DB</t>
   </si>
   <si>
     <t>Status</t>
@@ -124,6 +109,69 @@
   <si>
     <t>New York
 Masswell</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>JingYun Wang</t>
+  </si>
+  <si>
+    <t>NYIT</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>Ting-Ching Chou</t>
+  </si>
+  <si>
+    <t>UC Riverside</t>
+  </si>
+  <si>
+    <t>MS (CE)</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Rongjie Zhang</t>
+  </si>
+  <si>
+    <t>GWU</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>YiBo Chen</t>
+  </si>
+  <si>
+    <t>NYU</t>
+  </si>
+  <si>
+    <t>Yan Zhang</t>
+  </si>
+  <si>
+    <t>USC</t>
+  </si>
+  <si>
+    <t>MS (ME)</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>LA</t>
   </si>
 </sst>
 </file>
@@ -175,14 +223,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -478,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,141 +536,271 @@
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="3">
         <v>2019</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5">
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
         <v>2019</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2018</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
         <v>2019</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
         <v>2019</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Angular/mock_interview/12_2019/1st_round_mockinterview.xlsx
+++ b/Angular/mock_interview/12_2019/1st_round_mockinterview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james.wang/MySpace/teaching/Jago_Link_Training/Angular/mock_interview/12_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB110F-EB6A-1740-AB83-88B650EA50F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE36476F-62BA-6540-8CF1-0B97C5440DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="860" windowWidth="22600" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11000" yWindow="860" windowWidth="22600" windowHeight="15340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>School</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>LA</t>
+  </si>
+  <si>
+    <t>WenBo Ma</t>
+  </si>
+  <si>
+    <t>Maharishi Univ</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>IA</t>
   </si>
 </sst>
 </file>
@@ -522,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,7 +806,30 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
